--- a/Combined_datasets/6 OM Dataset/refined/Results/ Exp 4 Jan23 - Regular Dataset  - Tokenization 4.xlsx
+++ b/Combined_datasets/6 OM Dataset/refined/Results/ Exp 4 Jan23 - Regular Dataset  - Tokenization 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/6 OM Dataset/refined/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA5CC5-B568-274D-9C60-896FC6EEF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9332B0C-B358-B448-BBDE-37284C99F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="920" windowWidth="28140" windowHeight="15400" xr2:uid="{2CE11C35-6353-D34A-BC2C-8ADC3AEC3A0E}"/>
+    <workbookView xWindow="3920" yWindow="2620" windowWidth="28140" windowHeight="15400" xr2:uid="{2CE11C35-6353-D34A-BC2C-8ADC3AEC3A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,7 +372,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -389,11 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7389C-7B57-9042-BBA8-F5B59DB8B8DD}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
@@ -721,884 +729,884 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
